--- a/data/trans_dic/P42-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P42-Clase-trans_dic.xlsx
@@ -612,16 +612,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8672744001659207</v>
+        <v>0.8650992762203038</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.9328785469554252</v>
+        <v>0.935646488706923</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.9203776088471143</v>
+        <v>0.9180374320591388</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.8675293968919765</v>
+        <v>0.8668652562892307</v>
       </c>
     </row>
     <row r="6">
@@ -632,16 +632,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9318940059110798</v>
+        <v>0.9321049397356547</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9816246319060754</v>
+        <v>0.9817758736381313</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9682883797246964</v>
+        <v>0.9686527874819028</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.9300659878422411</v>
+        <v>0.9292829065652136</v>
       </c>
     </row>
     <row r="7">
@@ -665,7 +665,7 @@
         <v>0.9580902244505963</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.9069335465302882</v>
+        <v>0.9069335465302883</v>
       </c>
     </row>
     <row r="8">
@@ -676,16 +676,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8155034348572641</v>
+        <v>0.8180837005037869</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.9157525040444987</v>
+        <v>0.9134568992704879</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.9316511271726335</v>
+        <v>0.9318347967104351</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.8674667202258695</v>
+        <v>0.87144064034474</v>
       </c>
     </row>
     <row r="9">
@@ -696,16 +696,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8850160274180192</v>
+        <v>0.887919852607933</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9639935600490912</v>
+        <v>0.9645689403245233</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9759329230715387</v>
+        <v>0.9772427292066437</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.933835880417461</v>
+        <v>0.9333431990439985</v>
       </c>
     </row>
     <row r="10">
@@ -729,7 +729,7 @@
         <v>0.9365082987741388</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.8511799504904277</v>
+        <v>0.8511799504904276</v>
       </c>
     </row>
     <row r="11">
@@ -740,16 +740,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.7722067165609043</v>
+        <v>0.7841058569103199</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8861593482281241</v>
+        <v>0.8862367146194258</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8902599103340323</v>
+        <v>0.8877634569930138</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.7817291064323991</v>
+        <v>0.7929531561859171</v>
       </c>
     </row>
     <row r="12">
@@ -760,16 +760,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8896202525797523</v>
+        <v>0.8959771966656095</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.955393277019818</v>
+        <v>0.955713954026076</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9697976979249895</v>
+        <v>0.9655309475967778</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.8994488180636576</v>
+        <v>0.9004453482012496</v>
       </c>
     </row>
     <row r="13">
@@ -793,7 +793,7 @@
         <v>0.9015801253091892</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.8804096903548138</v>
+        <v>0.880409690354814</v>
       </c>
     </row>
     <row r="14">
@@ -804,16 +804,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.7701493943515325</v>
+        <v>0.7668425482573187</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8751422712539715</v>
+        <v>0.87154883113943</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8789250411236904</v>
+        <v>0.8783606235263265</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.8557806110501723</v>
+        <v>0.8567156768236484</v>
       </c>
     </row>
     <row r="15">
@@ -824,16 +824,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.828891741999593</v>
+        <v>0.8266491735687183</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9178329985388661</v>
+        <v>0.9174628514271315</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9212177882507041</v>
+        <v>0.9217562245533403</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9015780636641477</v>
+        <v>0.9044996798868912</v>
       </c>
     </row>
     <row r="16">
@@ -868,16 +868,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8111601053687226</v>
+        <v>0.8107961952580169</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8559209725803844</v>
+        <v>0.8534003745361672</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8488163576791974</v>
+        <v>0.8491590720503511</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.8187941774694599</v>
+        <v>0.8210082755604172</v>
       </c>
     </row>
     <row r="18">
@@ -888,16 +888,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8731396413785945</v>
+        <v>0.872752014812272</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9033912744752909</v>
+        <v>0.9034209366907907</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9005936838449625</v>
+        <v>0.898863037935841</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.8721054666499275</v>
+        <v>0.8718134822755562</v>
       </c>
     </row>
     <row r="19">
@@ -932,16 +932,16 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.6836894382737519</v>
+        <v>0.6854644965187858</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.7645990863085338</v>
+        <v>0.7644356906211559</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.7567754516472973</v>
+        <v>0.7529209430932322</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.6897901061315183</v>
+        <v>0.6856503411004716</v>
       </c>
     </row>
     <row r="21">
@@ -952,16 +952,16 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.7341010822053822</v>
+        <v>0.7356095831761992</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.8120127781742634</v>
+        <v>0.8118670872706383</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.8066208262001898</v>
+        <v>0.8052021580694005</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.7687306153444023</v>
+        <v>0.7701075031965817</v>
       </c>
     </row>
     <row r="22">
@@ -985,7 +985,7 @@
         <v>0.871683696080964</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.8392810228524077</v>
+        <v>0.8392810228524076</v>
       </c>
     </row>
     <row r="23">
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.7772792288104302</v>
+        <v>0.7765923395032397</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.8600217279885237</v>
+        <v>0.8593161302061642</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.8607848188736771</v>
+        <v>0.8601286715810408</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.8230062119410011</v>
+        <v>0.8246384315312212</v>
       </c>
     </row>
     <row r="24">
@@ -1016,16 +1016,16 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.8055551146654497</v>
+        <v>0.8054115654774773</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.8826398218809676</v>
+        <v>0.8829427808020219</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.8827479292947212</v>
+        <v>0.8820782060890441</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.8527365431458095</v>
+        <v>0.8538652287742928</v>
       </c>
     </row>
     <row r="25">
@@ -1176,16 +1176,16 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>264964</v>
+        <v>264299</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>293347</v>
+        <v>294218</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>317928</v>
+        <v>317120</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>291759</v>
+        <v>291535</v>
       </c>
     </row>
     <row r="7">
@@ -1196,16 +1196,16 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>284706</v>
+        <v>284770</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>308676</v>
+        <v>308723</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>334478</v>
+        <v>334604</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>312790</v>
+        <v>312527</v>
       </c>
     </row>
     <row r="8">
@@ -1260,16 +1260,16 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>300880</v>
+        <v>301832</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>306420</v>
+        <v>305652</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>343597</v>
+        <v>343664</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>268091</v>
+        <v>269320</v>
       </c>
     </row>
     <row r="11">
@@ -1280,16 +1280,16 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>326527</v>
+        <v>327598</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>322562</v>
+        <v>322754</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>359928</v>
+        <v>360411</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>288603</v>
+        <v>288451</v>
       </c>
     </row>
     <row r="12">
@@ -1344,16 +1344,16 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>129562</v>
+        <v>131559</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>229591</v>
+        <v>229611</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>147893</v>
+        <v>147478</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>103254</v>
+        <v>104736</v>
       </c>
     </row>
     <row r="15">
@@ -1364,16 +1364,16 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>149262</v>
+        <v>150329</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>247528</v>
+        <v>247611</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>161106</v>
+        <v>160397</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>118803</v>
+        <v>118934</v>
       </c>
     </row>
     <row r="16">
@@ -1428,16 +1428,16 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>547065</v>
+        <v>544716</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>667282</v>
+        <v>664542</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>723213</v>
+        <v>722748</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>532181</v>
+        <v>532762</v>
       </c>
     </row>
     <row r="19">
@@ -1448,16 +1448,16 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>588792</v>
+        <v>587199</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>699833</v>
+        <v>699551</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>758013</v>
+        <v>758456</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>560661</v>
+        <v>562478</v>
       </c>
     </row>
     <row r="20">
@@ -1512,16 +1512,16 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>457260</v>
+        <v>457055</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>646285</v>
+        <v>644382</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>620202</v>
+        <v>620453</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>531909</v>
+        <v>533348</v>
       </c>
     </row>
     <row r="23">
@@ -1532,16 +1532,16 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>492198</v>
+        <v>491980</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>682129</v>
+        <v>682151</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>658034</v>
+        <v>656770</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>566542</v>
+        <v>566352</v>
       </c>
     </row>
     <row r="24">
@@ -1596,16 +1596,16 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>852378</v>
+        <v>854591</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>844324</v>
+        <v>844143</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>809965</v>
+        <v>805840</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>468550</v>
+        <v>465738</v>
       </c>
     </row>
     <row r="27">
@@ -1616,16 +1616,16 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>915228</v>
+        <v>917109</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>896681</v>
+        <v>896520</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>863314</v>
+        <v>861796</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>522172</v>
+        <v>523107</v>
       </c>
     </row>
     <row r="28">
@@ -1680,16 +1680,16 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>2614010</v>
+        <v>2611700</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>3035859</v>
+        <v>3033368</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>3016317</v>
+        <v>3014018</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>2245326</v>
+        <v>2249779</v>
       </c>
     </row>
     <row r="31">
@@ -1700,16 +1700,16 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>2709103</v>
+        <v>2708620</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>3115700</v>
+        <v>3116769</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>3093279</v>
+        <v>3090933</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>2326437</v>
+        <v>2329516</v>
       </c>
     </row>
     <row r="32">
